--- a/KW/Excel Template.xlsx
+++ b/KW/Excel Template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="30">
   <si>
     <t>Phase 1</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Window Off_End</t>
+  </si>
+  <si>
+    <t>81(outlier)</t>
   </si>
 </sst>
 </file>
@@ -486,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,14 +1485,14 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="5">
-        <v>81</v>
+      <c r="D35" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="5">
-        <v>81</v>
+      <c r="G35" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H35" s="6" t="s">
         <v>3</v>
